--- a/test/filter_edge_color/4/hough_test_image_grayscale_accumulator4-16x16.xlsx
+++ b/test/filter_edge_color/4/hough_test_image_grayscale_accumulator4-16x16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushn\projects\cv-workbench\test\filter_edge_color\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8992243A-5992-4D17-A7DF-B308BFF489BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15A19C3C-D86A-4215-8683-E26A794F16CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{2C99A135-8463-4D72-92CB-A081C194A839}"/>
+    <workbookView xWindow="-28710" yWindow="60" windowWidth="18780" windowHeight="8895" xr2:uid="{DB643165-C37C-4590-B9CB-F1E22AEB8CD5}"/>
   </bookViews>
   <sheets>
     <sheet name="hough_test_image_grayscale_accu" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,14 +343,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -465,35 +459,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -539,14 +504,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -921,92 +881,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6E329B-7E82-4768-8059-C4412F425A48}">
-  <dimension ref="A1:W13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FD2E95-69D6-4EC0-92D1-3F750B5E59F2}">
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="23" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="28" width="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="33" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>-16.3</v>
+      </c>
+      <c r="C1">
+        <v>-15.3</v>
+      </c>
+      <c r="D1">
+        <v>-14.3</v>
+      </c>
+      <c r="E1">
+        <v>-13.3</v>
+      </c>
+      <c r="F1">
+        <v>-12.3</v>
+      </c>
+      <c r="G1">
         <v>-11.3</v>
       </c>
-      <c r="C1" s="2">
+      <c r="H1">
         <v>-10.3</v>
       </c>
-      <c r="D1" s="2">
+      <c r="I1">
         <v>-9.3000000000000007</v>
       </c>
-      <c r="E1" s="2">
+      <c r="J1">
         <v>-8.3000000000000007</v>
       </c>
-      <c r="F1" s="2">
+      <c r="K1">
         <v>-7.3</v>
       </c>
-      <c r="G1" s="2">
+      <c r="L1">
         <v>-6.3</v>
       </c>
-      <c r="H1" s="2">
+      <c r="M1">
         <v>-5.3</v>
       </c>
-      <c r="I1" s="2">
+      <c r="N1">
         <v>-4.3</v>
       </c>
-      <c r="J1" s="2">
+      <c r="O1">
         <v>-3.3</v>
       </c>
-      <c r="K1" s="2">
+      <c r="P1">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="L1" s="2">
+      <c r="Q1">
         <v>-1.3</v>
       </c>
-      <c r="M1" s="5">
+      <c r="R1">
         <v>-0.3</v>
       </c>
-      <c r="N1" s="2">
+      <c r="S1">
         <v>0.7</v>
       </c>
-      <c r="O1" s="2">
+      <c r="T1">
         <v>1.7</v>
       </c>
-      <c r="P1" s="2">
+      <c r="U1">
         <v>2.7</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="V1">
         <v>3.7</v>
       </c>
-      <c r="R1" s="5">
+      <c r="W1">
         <v>4.7</v>
       </c>
-      <c r="S1" s="2">
+      <c r="X1">
         <v>5.7</v>
       </c>
-      <c r="T1" s="2">
+      <c r="Y1">
         <v>6.7</v>
       </c>
-      <c r="U1" s="2">
+      <c r="Z1">
         <v>7.7</v>
       </c>
-      <c r="V1" s="2">
+      <c r="AA1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="W1" s="2">
+      <c r="AB1">
         <v>9.6999999999999993</v>
       </c>
+      <c r="AC1">
+        <v>10.7</v>
+      </c>
+      <c r="AD1">
+        <v>11.7</v>
+      </c>
+      <c r="AE1">
+        <v>12.7</v>
+      </c>
+      <c r="AF1">
+        <v>13.7</v>
+      </c>
+      <c r="AG1">
+        <v>14.7</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
@@ -1022,62 +1012,92 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>2</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1">
         <v>17</v>
       </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>15</v>
       </c>
       <c r="B3">
@@ -1087,31 +1107,31 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -1120,125 +1140,185 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <v>4</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3">
         <v>5</v>
       </c>
-      <c r="Q3">
-        <v>3</v>
-      </c>
-      <c r="R3">
+      <c r="X3">
         <v>5</v>
       </c>
-      <c r="S3">
-        <v>5</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
+      <c r="Y3">
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>30</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
         <v>4</v>
       </c>
-      <c r="P4">
-        <v>3</v>
-      </c>
-      <c r="Q4">
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
         <v>4</v>
       </c>
-      <c r="R4">
-        <v>3</v>
-      </c>
-      <c r="S4">
-        <v>3</v>
-      </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4">
-        <v>2</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
       <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>45</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1247,25 +1327,25 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1274,94 +1354,154 @@
         <v>5</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U5">
         <v>2</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>60</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
         <v>4</v>
       </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-      <c r="O6">
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
         <v>4</v>
       </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6">
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6">
         <v>4</v>
       </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
-      <c r="U6">
-        <v>2</v>
-      </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
-      <c r="W6">
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>75</v>
       </c>
       <c r="B7">
@@ -1371,68 +1511,98 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>2</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7">
         <v>2</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
         <v>4</v>
       </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-      <c r="R7">
-        <v>3</v>
-      </c>
-      <c r="S7">
-        <v>3</v>
-      </c>
-      <c r="T7">
-        <v>3</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
       <c r="V7">
         <v>2</v>
       </c>
       <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Y7">
+        <v>3</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>90</v>
       </c>
       <c r="B8">
@@ -1448,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1472,38 +1642,68 @@
         <v>2</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8">
         <v>4</v>
       </c>
-      <c r="R8">
-        <v>3</v>
-      </c>
-      <c r="S8">
-        <v>3</v>
-      </c>
-      <c r="T8">
-        <v>3</v>
-      </c>
-      <c r="U8">
-        <v>3</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
       <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <v>3</v>
+      </c>
+      <c r="Z8">
+        <v>3</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>105</v>
       </c>
       <c r="B9">
@@ -1516,28 +1716,28 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>2</v>
@@ -1546,35 +1746,65 @@
         <v>3</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="V9">
         <v>5</v>
       </c>
-      <c r="Q9">
-        <v>3</v>
-      </c>
-      <c r="R9">
+      <c r="W9">
         <v>5</v>
       </c>
-      <c r="S9">
-        <v>3</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
+      <c r="X9">
+        <v>3</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>120</v>
       </c>
       <c r="B10">
@@ -1587,65 +1817,95 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
         <v>5</v>
       </c>
-      <c r="L10">
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
         <v>4</v>
       </c>
-      <c r="M10">
+      <c r="T10">
         <v>4</v>
       </c>
-      <c r="N10">
-        <v>3</v>
-      </c>
-      <c r="O10">
-        <v>4</v>
-      </c>
-      <c r="P10">
-        <v>3</v>
-      </c>
-      <c r="Q10">
-        <v>3</v>
-      </c>
-      <c r="R10">
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
         <v>5</v>
       </c>
-      <c r="S10">
-        <v>2</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
+      <c r="X10">
+        <v>2</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>135</v>
       </c>
       <c r="B11">
@@ -1658,65 +1918,95 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
         <v>18</v>
       </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>2</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1">
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
         <v>8</v>
       </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>150</v>
       </c>
       <c r="B12">
@@ -1732,62 +2022,92 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
         <v>5</v>
       </c>
-      <c r="L12">
+      <c r="Q12">
         <v>5</v>
-      </c>
-      <c r="M12">
-        <v>5</v>
-      </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
-      <c r="O12">
-        <v>3</v>
-      </c>
-      <c r="P12">
-        <v>2</v>
-      </c>
-      <c r="Q12">
-        <v>3</v>
       </c>
       <c r="R12">
         <v>4</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W12">
+        <v>5</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>165</v>
       </c>
       <c r="B13">
@@ -1806,54 +2126,84 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
         <v>5</v>
       </c>
-      <c r="I13">
+      <c r="N13">
         <v>6</v>
       </c>
-      <c r="J13">
+      <c r="O13">
         <v>5</v>
       </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>2</v>
-      </c>
-      <c r="O13">
-        <v>2</v>
-      </c>
       <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
         <v>4</v>
       </c>
-      <c r="Q13">
-        <v>2</v>
-      </c>
-      <c r="R13">
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="W13">
         <v>4</v>
       </c>
-      <c r="S13">
-        <v>2</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
         <v>0</v>
       </c>
     </row>
